--- a/outputs-r202/f__UBA1067.xlsx
+++ b/outputs-r202/f__UBA1067.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>g__UBA1067</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>g__UBA1067</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>g__RUG572</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>g__RUG572</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>g__UBA1067</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>g__UBA1067</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -676,6 +696,11 @@
         <v>0.9999316608077878</v>
       </c>
       <c r="M5" t="inlineStr">
+        <is>
+          <t>g__UBA1067</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>g__UBA1067</t>
         </is>

--- a/outputs-r202/f__UBA1067.xlsx
+++ b/outputs-r202/f__UBA1067.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,141 +509,141 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG508.fasta</t>
+          <t>RUG572.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04994899090173824</v>
+        <v>0.0007109134125567003</v>
       </c>
       <c r="D2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567001</v>
       </c>
       <c r="E2" t="n">
-        <v>2.399930082546468e-10</v>
+        <v>0.9935964366791005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9001020179563971</v>
+        <v>0.0007162560204459588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04994899090173825</v>
+        <v>0.0007109134125567063</v>
       </c>
       <c r="H2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567094</v>
       </c>
       <c r="I2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567098</v>
       </c>
       <c r="J2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567098</v>
       </c>
       <c r="K2" t="n">
-        <v>2.222169545181866e-14</v>
+        <v>0.0007109134125567047</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9001020179563971</v>
+        <v>0.9935964366791005</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>g__UBA1067</t>
+          <t>g__RUG572</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>g__UBA1067</t>
+          <t>g__RUG572</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG572.fasta</t>
+          <t>RUG632.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007109134125567003</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007109134125567003</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007109134125567001</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9935964366791005</v>
+        <v>0.004145254053887659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007162560204459588</v>
+        <v>0.9958547459459348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007109134125567063</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007109134125567094</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007109134125567098</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007109134125567098</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007109134125567047</v>
+        <v>2.219982481167023e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9935964366791005</v>
+        <v>0.9958547459459348</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>g__RUG572</t>
+          <t>g__UBA1067</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>g__RUG572</t>
+          <t>g__UBA1067</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG632.fasta</t>
+          <t>RUG673.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004145254053887659</v>
+        <v>8.103435562889121e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9958547459459348</v>
+        <v>0.9999918965642595</v>
       </c>
       <c r="G4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.219982481167023e-14</v>
+        <v>2.220444272273707e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9958547459459348</v>
+        <v>0.9999918965642595</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -651,56 +651,6 @@
         </is>
       </c>
       <c r="N4" t="inlineStr">
-        <is>
-          <t>g__UBA1067</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG673.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.103435562889121e-06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9999918965642595</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.220444272273707e-14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9999918965642595</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>g__UBA1067</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
         <is>
           <t>g__UBA1067</t>
         </is>
